--- a/야구K6_ItemTablev1.0.3.xlsx
+++ b/야구K6_ItemTablev1.0.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HCN\Desktop\M.T.Baseball문서\김영선 서버개발자 파일\MTBaseball_아이템테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devtool\project\MTBaseball\MTBaseball\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-45" windowWidth="34845" windowHeight="11925"/>
+    <workbookView xWindow="60" yWindow="-45" windowWidth="34845" windowHeight="11925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tooltip" sheetId="17" r:id="rId1"/>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="802">
   <si>
     <t>//</t>
   </si>
@@ -4302,6 +4302,22 @@
   </si>
   <si>
     <t>양말 조각(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label(piecebox)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label(wearbox)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label(advicebox)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label(spendable)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5635,7 +5651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -6472,15 +6488,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC482"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D361" sqref="D361:D380"/>
+      <selection pane="bottomLeft" activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
@@ -32959,7 +32975,7 @@
     </row>
     <row r="382" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="10" t="s">
-        <v>141</v>
+        <v>798</v>
       </c>
       <c r="B382" s="10" t="s">
         <v>142</v>
@@ -33357,7 +33373,7 @@
     </row>
     <row r="388" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="10" t="s">
-        <v>141</v>
+        <v>799</v>
       </c>
       <c r="B388" s="10" t="s">
         <v>142</v>
@@ -33717,7 +33733,7 @@
     </row>
     <row r="394" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="10" t="s">
-        <v>141</v>
+        <v>800</v>
       </c>
       <c r="B394" s="10" t="s">
         <v>142</v>
@@ -33867,7 +33883,7 @@
     </row>
     <row r="396" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
-        <v>141</v>
+        <v>801</v>
       </c>
       <c r="B396" s="10" t="s">
         <v>142</v>
